--- a/out/penguins.xlsx
+++ b/out/penguins.xlsx
@@ -757,16 +757,9 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="MS PGothic"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -793,7 +786,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
